--- a/console/Networking/iaas网络与容器中文提取/vpcExcel/components/vpc_detailTab.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcExcel/components/vpc_detailTab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\vpcExcel\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -593,43 +593,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The name length cannot exceed 32 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Description length cannot exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description only supports Chinese, numbers, upper case and lower case letters and English underline “_”</t>
     </r>
   </si>
   <si>
@@ -642,14 +606,70 @@
   </si>
   <si>
     <t>Modify name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name length cannot exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Name only supports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters, English underline “_” and line-through</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Description only supports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters and English underline “_”</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -662,6 +682,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1029,19 +1056,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,10 +1176,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1203,10 +1231,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1214,10 +1242,12 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,10 +1255,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1236,12 +1266,15 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B18" numberStoredAsText="1"/>
   </ignoredErrors>
